--- a/ZedGraphPlot/quote.xlsx
+++ b/ZedGraphPlot/quote.xlsx
@@ -39678,8 +39678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="J377" sqref="J377"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -43804,7 +43804,7 @@
     </row>
     <row r="243" spans="1:5" ht="15.75" thickBot="1">
       <c r="A243" s="27">
-        <v>41603</v>
+        <v>41602</v>
       </c>
       <c r="B243" s="25" t="s">
         <v>1324</v>
